--- a/timeVaryingVE.xlsx
+++ b/timeVaryingVE.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyc\Desktop\fjyq统计和模拟\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyc\Desktop\fjyq_stat_model\fujian_stat_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C369A96-C5A4-4536-A5C5-EFE98D51C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DEF43-BEA7-4852-9667-2E77DEC01D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11733" activeTab="1" xr2:uid="{9782153A-BFBF-4AA8-A9A6-7507AB6372DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{9782153A-BFBF-4AA8-A9A6-7507AB6372DB}"/>
   </bookViews>
   <sheets>
     <sheet name="allAges" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="ve" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +108,20 @@
   </si>
   <si>
     <t>61+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>ve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +150,16 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,15 +186,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,20 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AA31FA-D49F-4B22-A48B-9C2F50E74BD5}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.76171875" customWidth="1"/>
-    <col min="7" max="7" width="12.76171875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="14.52734375" customWidth="1"/>
+    <col min="1" max="4" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +555,7 @@
         <v>0.75829999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -539,7 +569,7 @@
         <v>0.64549999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -553,25 +583,25 @@
         <v>0.5202</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -585,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -599,7 +629,7 @@
         <v>0.70740000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -613,7 +643,7 @@
         <v>0.99519999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -627,32 +657,32 @@
         <v>1.4207000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -690,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -716,7 +746,7 @@
         <v>0.67459999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -742,7 +772,7 @@
         <v>0.68110000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -768,20 +798,20 @@
         <v>0.40389999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -795,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -809,7 +839,7 @@
         <v>0.61519999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -823,7 +853,7 @@
         <v>0.85760000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -835,6 +865,67 @@
       </c>
       <c r="D24">
         <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.36506</v>
+      </c>
+      <c r="C28">
+        <v>0.22031000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.60489999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0.44002999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.28484999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.67979999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>0.54035999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="D30">
+        <v>0.76590000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -857,13 +948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714D9FFD-900D-4346-87B5-B5CF68A6A8A5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -891,7 +982,7 @@
         <v>0.61519999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -905,7 +996,7 @@
         <v>0.85760000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -917,6 +1008,153 @@
       </c>
       <c r="D4">
         <v>0.99480000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB54E8F-711A-47FC-9970-0D661974472D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.78169999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1424</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.64319999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.1999999999999798E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.50849999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB70A80A-1CD9-4297-B938-535A4093AF0F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.63494000000000006</v>
+      </c>
+      <c r="C2">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.77968999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.55997000000000008</v>
+      </c>
+      <c r="C3">
+        <v>0.32020000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.71514999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.45964000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.23409999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.61875000000000002</v>
       </c>
     </row>
   </sheetData>
